--- a/data/trans_bre/P14_x_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Edad-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,23</t>
+          <t>0,14; 4,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 8,77</t>
+          <t>-0,31; 8,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 1065,73</t>
+          <t>-16,74; 1088,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 854,28</t>
+          <t>-36,74; 1061,05</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,89</t>
+          <t>-0,15; 2,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,51</t>
+          <t>1,74; 8,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 448,51</t>
+          <t>-19,72; 474,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,56; 619,32</t>
+          <t>26,55; 555,23</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,66</t>
+          <t>2,23; 6,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 4,14</t>
+          <t>-1,43; 4,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,74; 401,93</t>
+          <t>58,22; 389,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 90,1</t>
+          <t>-17,98; 102,59</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 10,73</t>
+          <t>4,92; 11,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 8,75</t>
+          <t>2,46; 8,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,42; 361,83</t>
+          <t>92,2; 375,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,9; 162,05</t>
+          <t>26,87; 160,59</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 15,27</t>
+          <t>7,07; 15,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,1</t>
+          <t>4,16; 11,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,26; 324,38</t>
+          <t>78,47; 314,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,02; 140,05</t>
+          <t>36,31; 144,01</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,95</t>
+          <t>8,65; 15,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 10,48</t>
+          <t>3,18; 10,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>158,81; 476,21</t>
+          <t>153,05; 484,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>41,94; 186,17</t>
+          <t>50,19; 190,78</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,08</t>
+          <t>5,83; 8,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,19; 7,13</t>
+          <t>4,36; 7,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>154,23; 286,66</t>
+          <t>156,63; 296,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>62,21; 129,29</t>
+          <t>60,28; 125,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_x_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P14_x_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,38</t>
+          <t>0,17; 4,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 1088,62</t>
+          <t>-39,44; 1018,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,83</t>
+          <t>-0,27; 2,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 474,74</t>
+          <t>-18,96; 547,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,62</t>
+          <t>2,07; 6,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,22; 389,64</t>
+          <t>55,34; 443,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,06</t>
+          <t>4,55; 10,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,2; 375,58</t>
+          <t>80,38; 369,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 15,78</t>
+          <t>7,05; 15,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>78,47; 314,56</t>
+          <t>79,55; 315,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,65; 15,27</t>
+          <t>8,46; 15,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>153,05; 484,04</t>
+          <t>152,24; 476,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 8,16</t>
+          <t>5,75; 8,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>156,63; 296,42</t>
+          <t>150,9; 286,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
